--- a/biology/Histoire de la zoologie et de la botanique/Théophile_Klaine/Théophile_Klaine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Théophile_Klaine/Théophile_Klaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_Klaine</t>
+          <t>Théophile_Klaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le père Théophile Klaine, né le 28 mars 1842 à Vannecourt (Moselle), et mort le 5 décembre 1911 à Libreville (Gabon), est un spiritain français, envoyé comme missionnaire à Sainte-Marie-de-Libreville, où il séjourna pendant 45 ans et devint un spécialiste reconnu de la flore du Gabon et d'Afrique centrale.
-En collaboration avec le taxonomiste Jean Baptiste Louis Pierre, il identifie 5 nouvelles familles, 53 nouveaux genres et près de 200 nouvelles espèces. Il envoie quelque 3 600 spécimens à Louis Pierre, puis, après la mort de celui-ci, au Muséum de Paris[1]. Les épithètes spécifiques de plusieurs plantes tropicales lui rendent hommage : Anopyxis klaineana, Antrocaryon klaineanum, Dacryodes klaineana, Diphasia klaineana  ou Scottellia klaineana. 
-Il fut aussi le premier à remarquer les qualités de l'okoumé pour la fabrication du contreplaqué : le nom initial de Aukoumea était Bosswellia klaineana[2].
+En collaboration avec le taxonomiste Jean Baptiste Louis Pierre, il identifie 5 nouvelles familles, 53 nouveaux genres et près de 200 nouvelles espèces. Il envoie quelque 3 600 spécimens à Louis Pierre, puis, après la mort de celui-ci, au Muséum de Paris. Les épithètes spécifiques de plusieurs plantes tropicales lui rendent hommage : Anopyxis klaineana, Antrocaryon klaineanum, Dacryodes klaineana, Diphasia klaineana  ou Scottellia klaineana. 
+Il fut aussi le premier à remarquer les qualités de l'okoumé pour la fabrication du contreplaqué : le nom initial de Aukoumea était Bosswellia klaineana.
 </t>
         </is>
       </c>
